--- a/data/trans_camb/P16-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,7</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,49</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,06</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,23</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,01; 13,2</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,38; 7,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,51; 11,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,09; 17,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 11,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,1; 7,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,25; 13,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,26; 8,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,53; 7,46</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,19%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,68%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,29%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,59%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,28%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,62; 76,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,23; 43,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,23; 61,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,78; 50,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,75; 34,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,86; 22,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,22; 50,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,88; 30,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,99; 26,95</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,75</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,46</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,78</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,97</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,9</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,97</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,13; 17,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,15; 17,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,22; 18,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,54; 21,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,98; 9,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,06; 10,35</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,83; 17,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,99; 12,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,85; 14,08</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,53%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>62,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,67%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,85%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>45,19%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,02%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,3; 96,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,87; 94,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>28,28; 104,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,38; 53,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,27; 23,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,74; 25,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,11; 59,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,51; 43,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,12; 48,74</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,77</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,11</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,55</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,37</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,56</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,39</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,58</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,42; 14,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,54; 14,38</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,59; 16,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,26; 20,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,85; 11,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,49; 9,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,82; 16,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,43; 10,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,47; 11,42</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,65%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,55%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>40,53%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,38%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,08%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,26%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,15%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,66%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,77; 60,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,87; 58,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,84; 66,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>21,78; 48,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,9; 27,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,97; 23,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,39; 47,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,91; 31,32</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,83; 32,23</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,76</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,86</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,17</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,58</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,21</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,15</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,68</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,36; 13,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,89; 17,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,9; 13,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,66; 18,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,59; 10,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,02; 10,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,84; 14,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,13; 12,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 10,46</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,53%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,86%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,05%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,2%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,68%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,18%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,91%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,79%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,44; 38,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,45; 47,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,21; 37,27</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,28; 34,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,45; 18,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,7; 19,4</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,74; 32,19</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,3; 27,3</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,4; 22,59</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,69</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,94</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,21</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,39</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,05; 8,6</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,78; -1,55</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,33; 3,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,82; 13,86</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,28; 9,95</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,52; 5,37</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,03; 9,49</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,38; 2,56</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,32; 2,39</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,55%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,81%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,57%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,09%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,01%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,88%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,41; 12,37</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,27; -2,22</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,91; 4,72</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,33; 19,56</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,6; 13,95</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,79; 7,54</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,37; 13,43</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,41; 3,54</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,95; 3,29</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,36</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,58</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,72</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,65</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,07; 11,48</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,84; 7,98</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,52; 1,33</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,03; 5,52</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,11; 4,55</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,98; 1,1</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,57; 7,36</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 5,07</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,18; 0,51</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,1%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,91%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,25%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,0%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,53; 14,34</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 9,98</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,61; 1,74</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,07; 6,21</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 5,09</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,41; 1,21</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,88; 8,51</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,34; 5,83</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,79; 0,61</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,88</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,25</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,65</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,65</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,27</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,81</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,78</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,11</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,44; 12,54</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,74; 11,61</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,25; 14,57</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,34; 13,89</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,98; 8,68</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,6; 9,81</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,34; 12,65</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,08; 9,55</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,05; 11,68</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,36%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,82%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,74%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,88%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,71%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,75%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,66%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,33%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,97; 32,02</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,15; 29,7</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>19,99; 37,0</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,5; 24,19</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,57; 15,21</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,99; 16,85</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,55; 26,01</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,98; 19,52</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,92; 23,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>5,1</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-0,52</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,23</t>
+          <t>1,78</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 11,11</t>
+          <t>-3,01; 13,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 7,79</t>
+          <t>-8,51; 8,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 7,46</t>
+          <t>-4,05; 8,17</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>25,65%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-3,29%</t>
+          <t>-1,36%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>6,2%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,23; 61,29</t>
+          <t>-15,09; 73,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-21,86; 22,58</t>
+          <t>-20,86; 23,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-14,99; 26,95</t>
+          <t>-13,28; 29,85</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,38</t>
+          <t>13,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>9,51</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>8,97</t>
+          <t>13,53</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,22; 18,97</t>
+          <t>7,72; 20,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,06; 10,35</t>
+          <t>-0,23; 27,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,85; 14,08</t>
+          <t>7,35; 26,14</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>61,67%</t>
+          <t>68,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>21,77%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>29,02%</t>
+          <t>43,77%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>28,28; 104,19</t>
+          <t>35,25; 112,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 25,58</t>
+          <t>-0,68; 65,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>12,12; 48,74</t>
+          <t>22,84; 86,51</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,11</t>
+          <t>11,81</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,49</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>7,58</t>
+          <t>8,12</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,59; 16,5</t>
+          <t>6,23; 17,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 9,77</t>
+          <t>0,02; 10,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,47; 11,42</t>
+          <t>4,11; 12,01</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>40,53%</t>
+          <t>43,09%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>11,19%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>22,13%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,84; 66,6</t>
+          <t>20,9; 70,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 23,3</t>
+          <t>0,04; 24,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,83; 32,23</t>
+          <t>10,57; 33,98</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,17</t>
+          <t>-2,88</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,91</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>-1,49</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 13,81</t>
+          <t>-27,38; 13,16</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 10,07</t>
+          <t>-6,49; 8,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 10,46</t>
+          <t>-21,41; 8,76</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>-7,25%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>11,79%</t>
+          <t>-3,09%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,21; 37,27</t>
+          <t>-61,97; 33,67</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 19,4</t>
+          <t>-10,49; 16,09</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 22,59</t>
+          <t>-42,99; 18,54</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-2,77</t>
+          <t>-2,09</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,39</t>
+          <t>-1,03</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 3,25</t>
+          <t>-7,57; 3,91</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 5,37</t>
+          <t>-4,45; 5,46</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 2,39</t>
+          <t>-5,05; 2,76</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-3,81%</t>
+          <t>-2,86%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-1,88%</t>
+          <t>-1,39%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-10,91; 4,72</t>
+          <t>-10,05; 5,63</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 7,54</t>
+          <t>-5,68; 7,61</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-6,95; 3,29</t>
+          <t>-6,55; 3,75</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>7,36</t>
+          <t>9,45</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3,62</t>
+          <t>4,81</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-2,58</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-2,99</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>4,72</t>
+          <t>5,28</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-2,65</t>
+          <t>-0,79</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>3,07; 11,48</t>
+          <t>3,77; 15,38</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 7,98</t>
+          <t>-1,35; 10,84</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 1,33</t>
+          <t>-8,04; 3,27</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,03; 5,52</t>
+          <t>-2,56; 5,98</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 4,55</t>
+          <t>-2,8; 5,38</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 1,1</t>
+          <t>-8,28; 7,33</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2,57; 7,36</t>
+          <t>1,1; 8,62</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,3; 5,07</t>
+          <t>-0,74; 6,45</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 0,51</t>
+          <t>-6,0; 7,14</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>11,95%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-3,1%</t>
+          <t>-2,89%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>1,65%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-3,25%</t>
+          <t>-1,52%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-3,0%</t>
+          <t>-0,93%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>3,53; 14,34</t>
+          <t>4,49; 20,77</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 9,98</t>
+          <t>-1,7; 14,45</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 1,74</t>
+          <t>-9,86; 4,32</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>0,07; 6,21</t>
+          <t>-2,79; 6,83</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 5,09</t>
+          <t>-2,99; 6,13</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 1,21</t>
+          <t>-9,05; 8,4</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>2,88; 8,51</t>
+          <t>1,27; 10,26</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>0,34; 5,83</t>
+          <t>-0,88; 7,75</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 0,61</t>
+          <t>-7,01; 8,68</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>9,88</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>9,25</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>11,65</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>11,65</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>6,27</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>10,81</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>7,78</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>9,11</t>
+          <t>-2,2</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>7,44; 12,54</t>
+          <t>-0,99; 9,15</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>6,74; 11,61</t>
+          <t>-3,54; 6,92</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>8,25; 14,57</t>
+          <t>-8,53; 2,16</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>9,34; 13,89</t>
+          <t>0,34; 7,29</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>3,98; 8,68</t>
+          <t>-1,86; 5,78</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>3,6; 9,81</t>
+          <t>-5,08; 2,02</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>9,34; 12,65</t>
+          <t>0,54; 6,78</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>6,08; 9,55</t>
+          <t>-1,29; 4,96</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>7,05; 11,68</t>
+          <t>-5,15; 0,87</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>24,36%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>22,82%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>-3,34%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>10,71%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>-1,7%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>15,66%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>-2,39%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>-1,07; 10,81</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 8,12</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>-9,21; 2,62</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>0,38; 8,12</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>-1,96; 6,37</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>-5,32; 2,22</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>0,63; 7,64</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>-1,37; 5,54</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>-5,49; 0,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>9,88</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>9,25</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>8,76</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>11,65</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>6,27</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>7,65</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>10,81</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>7,78</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>8,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>7,44; 12,54</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>6,74; 11,61</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-3,5; 13,58</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>9,34; 13,89</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>3,98; 8,68</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>4,22; 13,67</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>9,34; 12,65</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>6,08; 9,55</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>1,84; 12,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>24,36%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>22,82%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>21,61%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>19,88%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>10,71%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>13,06%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>21,75%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>15,66%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>16,7%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>17,97; 32,02</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>16,15; 29,7</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>19,99; 37,0</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-7,9; 33,96</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>15,5; 24,19</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>6,57; 15,21</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>5,99; 16,85</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>7,18; 24,01</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>18,55; 26,01</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>11,98; 19,52</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>13,92; 23,63</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>4,2; 24,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P16-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,01; 13,2</t>
+          <t>1,8; 12,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 7,57</t>
+          <t>-2,76; 7,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 13,63</t>
+          <t>-2,96; 14,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,09; 17,3</t>
+          <t>3,8; 17,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 11,85</t>
+          <t>-1,38; 11,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 8,35</t>
+          <t>-8,2; 8,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,25; 13,8</t>
+          <t>4,85; 13,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 8,01</t>
+          <t>-1,1; 8,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 8,17</t>
+          <t>-4,38; 7,67</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,62; 76,14</t>
+          <t>7,85; 72,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 43,03</t>
+          <t>-12,29; 44,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 73,73</t>
+          <t>-14,53; 76,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,78; 50,34</t>
+          <t>8,54; 49,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 34,4</t>
+          <t>-3,6; 32,05</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,86; 23,08</t>
+          <t>-20,75; 23,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,22; 50,93</t>
+          <t>15,49; 50,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 30,32</t>
+          <t>-3,74; 29,16</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-13,28; 29,85</t>
+          <t>-14,56; 28,04</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,13; 17,24</t>
+          <t>8,16; 17,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,15; 17,15</t>
+          <t>7,54; 17,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,72; 20,61</t>
+          <t>7,09; 20,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,54; 21,3</t>
+          <t>8,79; 20,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 9,76</t>
+          <t>-1,66; 9,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 27,26</t>
+          <t>-0,54; 26,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,83; 17,36</t>
+          <t>10,27; 17,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,99; 12,8</t>
+          <t>5,12; 12,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,35; 26,14</t>
+          <t>7,35; 26,79</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36,3; 96,07</t>
+          <t>35,63; 92,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,87; 94,69</t>
+          <t>31,86; 92,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>35,25; 112,6</t>
+          <t>31,13; 109,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>20,38; 53,43</t>
+          <t>18,84; 50,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 23,22</t>
+          <t>-3,63; 24,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 65,6</t>
+          <t>-1,32; 63,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,11; 59,19</t>
+          <t>31,49; 62,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,51; 43,57</t>
+          <t>15,62; 44,77</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,84; 86,51</t>
+          <t>22,97; 91,31</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,42; 14,9</t>
+          <t>4,4; 15,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,54; 14,38</t>
+          <t>4,04; 14,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,23; 17,3</t>
+          <t>6,47; 17,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,26; 20,45</t>
+          <t>10,38; 21,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,85; 11,73</t>
+          <t>0,85; 12,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,02; 10,35</t>
+          <t>-0,19; 10,65</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,82; 16,28</t>
+          <t>8,74; 16,45</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,43; 10,9</t>
+          <t>3,55; 11,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,11; 12,01</t>
+          <t>4,09; 12,27</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,77; 60,84</t>
+          <t>15,32; 61,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,87; 58,77</t>
+          <t>13,66; 60,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,9; 70,03</t>
+          <t>21,27; 70,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>21,78; 48,91</t>
+          <t>21,22; 50,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,9; 27,99</t>
+          <t>1,76; 28,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,04; 24,5</t>
+          <t>-0,36; 25,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>22,39; 47,3</t>
+          <t>22,57; 46,97</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,91; 31,32</t>
+          <t>9,49; 33,46</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>10,57; 33,98</t>
+          <t>10,57; 35,8</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,36; 13,73</t>
+          <t>1,53; 13,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,89; 17,85</t>
+          <t>5,62; 17,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-27,38; 13,16</t>
+          <t>-26,62; 13,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,66; 18,1</t>
+          <t>6,8; 18,62</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 10,11</t>
+          <t>-1,73; 10,48</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 8,69</t>
+          <t>-6,87; 7,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>5,84; 14,71</t>
+          <t>5,84; 14,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,13; 12,53</t>
+          <t>4,16; 12,56</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-21,41; 8,76</t>
+          <t>-21,89; 8,41</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,44; 38,1</t>
+          <t>3,35; 35,52</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>13,45; 47,29</t>
+          <t>12,7; 48,93</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-61,97; 33,67</t>
+          <t>-59,83; 34,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>11,28; 34,05</t>
+          <t>11,07; 35,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 18,78</t>
+          <t>-2,8; 19,76</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-10,49; 16,09</t>
+          <t>-11,46; 14,72</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>11,74; 32,19</t>
+          <t>11,64; 31,96</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,3; 27,3</t>
+          <t>8,38; 27,38</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-42,99; 18,54</t>
+          <t>-44,8; 17,71</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 8,6</t>
+          <t>-3,67; 8,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,78; -1,55</t>
+          <t>-13,94; -1,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 3,91</t>
+          <t>-7,79; 3,9</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,82; 13,86</t>
+          <t>2,13; 13,3</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 9,95</t>
+          <t>-1,02; 10,24</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 5,46</t>
+          <t>-4,57; 5,79</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,03; 9,49</t>
+          <t>1,18; 9,64</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 2,56</t>
+          <t>-5,7; 2,81</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-5,05; 2,76</t>
+          <t>-4,71; 3,05</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 12,37</t>
+          <t>-4,82; 12,18</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-18,27; -2,22</t>
+          <t>-18,41; -1,93</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-10,05; 5,63</t>
+          <t>-10,28; 5,51</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>2,33; 19,56</t>
+          <t>2,93; 18,93</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 13,95</t>
+          <t>-1,27; 14,43</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 7,61</t>
+          <t>-5,86; 7,99</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>1,37; 13,43</t>
+          <t>1,53; 13,47</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 3,54</t>
+          <t>-7,51; 3,89</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 3,75</t>
+          <t>-6,21; 4,25</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>3,77; 15,38</t>
+          <t>3,69; 15,52</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 10,84</t>
+          <t>-1,55; 11,62</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 3,27</t>
+          <t>-7,62; 4,05</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 5,98</t>
+          <t>-2,56; 5,64</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 5,38</t>
+          <t>-2,26; 5,86</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 7,33</t>
+          <t>-8,31; 7,47</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>1,1; 8,62</t>
+          <t>1,49; 8,88</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 6,45</t>
+          <t>-0,87; 6,67</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 7,14</t>
+          <t>-6,33; 7,49</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>4,49; 20,77</t>
+          <t>4,44; 20,54</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 14,45</t>
+          <t>-1,92; 15,34</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-9,86; 4,32</t>
+          <t>-9,32; 5,23</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 6,83</t>
+          <t>-2,76; 6,36</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 6,13</t>
+          <t>-2,49; 6,6</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-9,05; 8,4</t>
+          <t>-9,2; 8,8</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>1,27; 10,26</t>
+          <t>1,72; 10,72</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 7,75</t>
+          <t>-1,02; 8,01</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 8,68</t>
+          <t>-7,31; 9,01</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 9,15</t>
+          <t>-0,61; 9,68</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 6,92</t>
+          <t>-3,27; 7,07</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-8,53; 2,16</t>
+          <t>-8,42; 2,24</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>0,34; 7,29</t>
+          <t>0,3; 6,92</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 5,78</t>
+          <t>-1,77; 6,01</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 2,02</t>
+          <t>-4,85; 2,08</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>0,54; 6,78</t>
+          <t>0,87; 6,59</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 4,96</t>
+          <t>-1,16; 4,83</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-5,15; 0,87</t>
+          <t>-4,87; 0,97</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 10,81</t>
+          <t>-0,66; 11,28</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 8,12</t>
+          <t>-3,59; 8,11</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 2,62</t>
+          <t>-9,17; 2,58</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>0,38; 8,12</t>
+          <t>0,32; 7,7</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 6,37</t>
+          <t>-1,87; 6,59</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 2,22</t>
+          <t>-5,07; 2,3</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>0,63; 7,64</t>
+          <t>0,93; 7,3</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 5,54</t>
+          <t>-1,29; 5,38</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 0,97</t>
+          <t>-5,23; 1,08</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>7,44; 12,54</t>
+          <t>7,44; 12,38</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>6,74; 11,61</t>
+          <t>6,94; 11,68</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 13,58</t>
+          <t>-2,69; 13,28</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>9,34; 13,89</t>
+          <t>9,24; 14,02</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>3,98; 8,68</t>
+          <t>3,73; 8,51</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>4,22; 13,67</t>
+          <t>4,37; 14,35</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>9,34; 12,65</t>
+          <t>9,09; 12,56</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>6,08; 9,55</t>
+          <t>6,16; 9,49</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>1,84; 12,24</t>
+          <t>1,57; 11,91</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>17,97; 32,02</t>
+          <t>17,8; 31,66</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>16,15; 29,7</t>
+          <t>16,35; 29,76</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 33,96</t>
+          <t>-6,28; 32,95</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>15,5; 24,19</t>
+          <t>15,46; 24,38</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>6,57; 15,21</t>
+          <t>6,26; 14,95</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>7,18; 24,01</t>
+          <t>7,37; 24,58</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>18,55; 26,01</t>
+          <t>18,04; 25,76</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>11,98; 19,52</t>
+          <t>12,2; 19,39</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>4,2; 24,82</t>
+          <t>3,19; 24,2</t>
         </is>
       </c>
     </row>
